--- a/profit.xlsx
+++ b/profit.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="1.30" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
   <si>
     <t>مبلغ در نظر گرفته شده برای سود</t>
   </si>
@@ -373,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,7 +1618,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2187,4 +2188,689 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>ROUND((A2-0.4)/(B2-1),0)</f>
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <f>ROUND((D2*B2)-D2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <f>D2</f>
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <f>SUM(F2:F2)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>ROUND(((G2+A3)-0.4)/(B2-1),0)</f>
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E24" si="0">ROUND((D3*B3)-D3,0)</f>
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <f>D3</f>
+        <v>95</v>
+      </c>
+      <c r="G3">
+        <f>SUM(F2:F3)</f>
+        <v>117</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>ROUND(((G3+A4)-0.4)/(B3-1),0)</f>
+        <v>405</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="F4">
+        <f>D4</f>
+        <v>405</v>
+      </c>
+      <c r="G4">
+        <f>SUM(F2:F4)</f>
+        <v>522</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>ROUND(((G4+A5)-0.4)/(B4-1),0)</f>
+        <v>1739</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F24" si="1">D5</f>
+        <v>1739</v>
+      </c>
+      <c r="G5">
+        <f>SUM(F2:F5)</f>
+        <v>2261</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1.3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>ROUND(((G5+A6)-0.4)/(B5-1),0)</f>
+        <v>7535</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2261</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>7535</v>
+      </c>
+      <c r="G6">
+        <f>SUM(F2:F6)</f>
+        <v>9796</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f>ROUND((G6+A7)/(B6-1),0)</f>
+        <v>32680</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>9804</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>32680</v>
+      </c>
+      <c r="G7">
+        <f>SUM(F2:F7)</f>
+        <v>42476</v>
+      </c>
+      <c r="I7">
+        <f>D2</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f>ROUND((G7+A8)/(B7-1),0)</f>
+        <v>141613</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>42484</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>141613</v>
+      </c>
+      <c r="G8">
+        <f>SUM(F2:F8)</f>
+        <v>184089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f>ROUND((G8+A9)/(B8-1),0)</f>
+        <v>613657</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>184097</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>613657</v>
+      </c>
+      <c r="G9">
+        <f>SUM(F2:F9)</f>
+        <v>797746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f>ROUND((G9+A10)/(B9-1),0)</f>
+        <v>2659180</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>797754</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2659180</v>
+      </c>
+      <c r="G10">
+        <f>SUM(F2:F10)</f>
+        <v>3456926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f>ROUND((G10+A11)/(B10-1),0)</f>
+        <v>11523113</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>3456934</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>11523113</v>
+      </c>
+      <c r="G11">
+        <f>SUM(F2:F11)</f>
+        <v>14980039</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1.3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f>ROUND((G11+A12)/(B11-1),0)</f>
+        <v>49933490</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>14980047</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>49933490</v>
+      </c>
+      <c r="G12">
+        <f>SUM(F2:F12)</f>
+        <v>64913529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f>ROUND((G12+A13)/(B12-1),0)</f>
+        <v>216378457</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>64913537</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>216378457</v>
+      </c>
+      <c r="G13">
+        <f>SUM(F2:F13)</f>
+        <v>281291986</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f>ROUND((G13+A14)/(B13-1),0)</f>
+        <v>937639980</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>281291994</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>937639980</v>
+      </c>
+      <c r="G14">
+        <f>SUM(F2:F14)</f>
+        <v>1218931966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>1.3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f>ROUND((G14+A15)/(B14-1),0)</f>
+        <v>4063106580</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1218931974</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>4063106580</v>
+      </c>
+      <c r="G15">
+        <f>SUM(F2:F15)</f>
+        <v>5282038546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>1.3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f>ROUND((G15+A16)/(B15-1),0)</f>
+        <v>17606795180</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5282038554</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>17606795180</v>
+      </c>
+      <c r="G16">
+        <f>SUM(F2:F16)</f>
+        <v>22888833726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1.3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f>ROUND((G16+A17)/(B16-1),0)</f>
+        <v>76296112447</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>22888833734</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>76296112447</v>
+      </c>
+      <c r="G17">
+        <f>SUM(F2:F17)</f>
+        <v>99184946173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1.3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <f>ROUND((G17+A18)/(B17-1),0)</f>
+        <v>330616487270</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>99184946181</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>330616487270</v>
+      </c>
+      <c r="G18">
+        <f>SUM(F2:F18)</f>
+        <v>429801433443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1.3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f>ROUND((G18+A19)/(B18-1),0)</f>
+        <v>1432671444837</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>429801433451</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1432671444837</v>
+      </c>
+      <c r="G19">
+        <f>SUM(F2:F19)</f>
+        <v>1862472878280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f>ROUND((G19+A20)/(B19-1),0)</f>
+        <v>6208242927627</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1862472878288</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>6208242927627</v>
+      </c>
+      <c r="G20">
+        <f>SUM(F2:F20)</f>
+        <v>8070715805907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>1.3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f>ROUND((G20+A21)/(B20-1),0)</f>
+        <v>26902386019717</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>8070715805915</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>26902386019717</v>
+      </c>
+      <c r="G21">
+        <f>SUM(F2:F21)</f>
+        <v>34973101825624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>1.3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <f>ROUND((G21+A22)/(B21-1),0)</f>
+        <v>116577006085440</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>34973101825632</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>116577006085440</v>
+      </c>
+      <c r="G22">
+        <f>SUM(F2:F22)</f>
+        <v>151550107911064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1.3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f>ROUND((G22+A23)/(B22-1),0)</f>
+        <v>505167026370240</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>151550107911072</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>505167026370240</v>
+      </c>
+      <c r="G23">
+        <f>SUM(F2:F23)</f>
+        <v>656717134281304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1.3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f>ROUND((G23+A24)/(B23-1),0)</f>
+        <v>2189057114271040</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>656717134281312</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2189057114271040</v>
+      </c>
+      <c r="G24">
+        <f>SUM(F2:F24)</f>
+        <v>2845774248552344</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/profit.xlsx
+++ b/profit.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3.00" sheetId="3" r:id="rId3"/>
     <sheet name="1.30" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>مبلغ در نظر گرفته شده برای سود</t>
   </si>
@@ -378,12 +378,12 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -486,7 +486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -513,7 +513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -567,7 +567,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -594,7 +594,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -621,7 +621,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -648,7 +648,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -675,7 +675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -702,7 +702,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -783,7 +783,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -810,7 +810,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -837,7 +837,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -891,7 +891,7 @@
         <v>10384</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -918,7 +918,7 @@
         <v>15579</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -955,15 +955,15 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G24"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -986,36 +986,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <f>J10</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <f>ROUND(A2/(B2-1),0)</f>
-        <v>10</v>
+        <f>ROUND((A2-0.4)/(B2-1),0)</f>
+        <v>3</v>
       </c>
       <c r="E2">
         <f>(D2*B2)-D2</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <f>D2</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <f>SUM(F2:F2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1024,25 +1025,25 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>ROUND((G2+A2)/(B2-1),0)</f>
-        <v>15</v>
+        <f>ROUND(((A3+G2)-0.4)/(B3-1),0)</f>
+        <v>5</v>
       </c>
       <c r="E3">
         <f>(D3*B3)-D3</f>
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <f>D3</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f>SUM(F2:F3)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1051,25 +1052,25 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>ROUND((G3+A3)/(B3-1),0)</f>
-        <v>23</v>
+        <f>ROUND(((A4+G3)-0.4)/(B4-1),0)</f>
+        <v>7</v>
       </c>
       <c r="E4">
         <f>(D4*B4)-D4</f>
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <f>D4</f>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <f>SUM(F2:F4)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1078,25 +1079,25 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D21" si="0">ROUND((G4+A4)/(B4-1),0)</f>
-        <v>34</v>
+        <f t="shared" ref="D5:D23" si="0">ROUND(((A5+G4)-0.4)/(B5-1),0)</f>
+        <v>11</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E21" si="1">(D5*B5)-D5</f>
-        <v>68</v>
+        <f t="shared" ref="E5:E23" si="1">(D5*B5)-D5</f>
+        <v>22</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F21" si="2">D5</f>
-        <v>34</v>
+        <f t="shared" ref="F5:F23" si="2">D5</f>
+        <v>11</v>
       </c>
       <c r="G5">
         <f>SUM(F2:F5)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1106,24 +1107,24 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <f>SUM(F2:F6)</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1133,24 +1134,24 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="G7">
         <f>SUM(F2:F7)</f>
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1160,24 +1161,24 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>72</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <f>SUM(F2:F8)</f>
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1187,24 +1188,24 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="G9">
         <f>SUM(F2:F9)</f>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1214,24 +1215,24 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>518</v>
+        <v>162</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>81</v>
       </c>
       <c r="G10">
         <f>SUM(F2:F10)</f>
-        <v>757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1241,24 +1242,24 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>778</v>
+        <v>244</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="G11">
         <f>SUM(F2:F11)</f>
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1268,24 +1269,24 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>583</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1166</v>
+        <v>366</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>583</v>
+        <v>183</v>
       </c>
       <c r="G12">
         <f>SUM(F2:F12)</f>
-        <v>1729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1295,24 +1296,24 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>875</v>
+        <v>274</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>1750</v>
+        <v>548</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>875</v>
+        <v>274</v>
       </c>
       <c r="G13">
         <f>SUM(F2:F13)</f>
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1322,24 +1323,24 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>1312</v>
+        <v>411</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>2624</v>
+        <v>822</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>1312</v>
+        <v>411</v>
       </c>
       <c r="G14">
         <f>SUM(F2:F14)</f>
-        <v>3916</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1349,24 +1350,24 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>1968</v>
+        <v>617</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>3936</v>
+        <v>1234</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>1968</v>
+        <v>617</v>
       </c>
       <c r="G15">
         <f>SUM(F2:F15)</f>
-        <v>5884</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -1376,24 +1377,24 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>2952</v>
+        <v>925</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>5904</v>
+        <v>1850</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>2952</v>
+        <v>925</v>
       </c>
       <c r="G16">
         <f>SUM(F2:F16)</f>
-        <v>8836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1403,24 +1404,24 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>4428</v>
+        <v>1388</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>8856</v>
+        <v>2776</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>4428</v>
+        <v>1388</v>
       </c>
       <c r="G17">
         <f>SUM(F2:F17)</f>
-        <v>13264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1428,26 +1429,26 @@
       <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
-        <f t="shared" si="0"/>
-        <v>6642</v>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>2082</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>13284</v>
+        <v>4164</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>6642</v>
+        <v>2082</v>
       </c>
       <c r="G18">
         <f>SUM(F2:F18)</f>
-        <v>19906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1457,24 +1458,24 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>9963</v>
+        <v>3123</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>19926</v>
+        <v>6246</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>9963</v>
+        <v>3123</v>
       </c>
       <c r="G19">
         <f>SUM(F2:F19)</f>
-        <v>29869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1484,24 +1485,24 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>14945</v>
+        <v>4684</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>29890</v>
+        <v>9368</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>14945</v>
+        <v>4684</v>
       </c>
       <c r="G20">
         <f>SUM(F2:F20)</f>
-        <v>44814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>14046</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1511,24 +1512,24 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>22417</v>
+        <v>7026</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>44834</v>
+        <v>14052</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>22417</v>
+        <v>7026</v>
       </c>
       <c r="G21">
         <f>SUM(F2:F21)</f>
-        <v>67231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1536,26 +1537,26 @@
       <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22:D23" si="3">ROUND((G21+A21)/(B21-1),0)</f>
-        <v>33626</v>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10539</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E23" si="4">(D22*B22)-D22</f>
-        <v>67252</v>
+        <f t="shared" si="1"/>
+        <v>21078</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F23" si="5">D22</f>
-        <v>33626</v>
+        <f t="shared" si="2"/>
+        <v>10539</v>
       </c>
       <c r="G22">
         <f>SUM(F2:F22)</f>
-        <v>100857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>31611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1564,48 +1565,24 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
-        <v>50439</v>
+        <f t="shared" si="0"/>
+        <v>15809</v>
       </c>
       <c r="E23">
-        <f t="shared" si="4"/>
-        <v>100878</v>
+        <f t="shared" si="1"/>
+        <v>31618</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
-        <v>50439</v>
+        <f t="shared" si="2"/>
+        <v>15809</v>
       </c>
       <c r="G23">
         <f>SUM(F2:F23)</f>
-        <v>151296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" s="1">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <f t="shared" ref="D24" si="6">ROUND((G23+A23)/(B23-1),0)</f>
-        <v>75658</v>
-      </c>
-      <c r="E24">
-        <f t="shared" ref="E24" si="7">(D24*B24)-D24</f>
-        <v>151316</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24" si="8">D24</f>
-        <v>75658</v>
-      </c>
-      <c r="G24">
-        <f>SUM(F2:F24)</f>
-        <v>226954</v>
-      </c>
+        <v>47420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1615,15 +1592,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1645,10 +1631,31 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1657,24 +1664,49 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <f>ROUND((A2-0.4)/(B2-1),0)</f>
+        <v>17</v>
       </c>
       <c r="E2">
         <f>(D2*B2)-D2</f>
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F2">
         <f>D2</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <f>SUM(F2:F2)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>35</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>17</v>
+      </c>
+      <c r="N2">
+        <f>(M2*K2)-M2</f>
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <f>M2</f>
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <f>SUM(O2:O2)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1683,25 +1715,50 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <f>ROUND((G2+A2)/(B2-1),0)</f>
-        <v>55</v>
+        <f>ROUND(((A3+G2)-0.4)/(B3-1),0)</f>
+        <v>26</v>
       </c>
       <c r="E3">
         <f>(D3*B3)-D3</f>
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <f>D3</f>
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <f>SUM(F2:F3)</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>34</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <f>ROUND(((J3+P2)-0.4)/(K3-1),0)</f>
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <f>(M3*K3)-M3</f>
+        <v>50</v>
+      </c>
+      <c r="O3">
+        <f>M3</f>
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <f>SUM(O2:O3)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1710,25 +1767,50 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <f>ROUND((G3+A3)/(B3-1),0)</f>
-        <v>83</v>
+        <f>ROUND(((A4+G3)-0.4)/(B4-1),0)</f>
+        <v>39</v>
       </c>
       <c r="E4">
         <f>(D4*B4)-D4</f>
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <f>D4</f>
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <f>SUM(F2:F4)</f>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <f>ROUND(((J4+P3)-0.4)/(K4-1),0)</f>
+        <v>38</v>
+      </c>
+      <c r="N4">
+        <f>(M4*K4)-M4</f>
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <f>M4</f>
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <f>SUM(O2:O4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1737,25 +1819,50 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D21" si="0">ROUND((G4+A4)/(B4-1),0)</f>
-        <v>124</v>
+        <f t="shared" ref="D5:D21" si="0">ROUND(((A5+G4)-0.4)/(B5-1),0)</f>
+        <v>58</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E21" si="1">(D5*B5)-D5</f>
-        <v>248</v>
+        <v>116</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F21" si="2">D5</f>
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <f>SUM(F2:F5)</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M21" si="3">ROUND(((J5+P4)-0.4)/(K5-1),0)</f>
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N21" si="4">(M5*K5)-M5</f>
+        <v>114</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O21" si="5">M5</f>
+        <v>57</v>
+      </c>
+      <c r="P5">
+        <f>SUM(O2:O5)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1765,24 +1872,49 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>372</v>
+        <v>174</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <f>SUM(F2:F6)</f>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+      <c r="J6">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="P6">
+        <f>SUM(O2:O6)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1792,24 +1924,49 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>558</v>
+        <v>262</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="G7">
         <f>SUM(F2:F7)</f>
-        <v>737</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>256</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>128</v>
+      </c>
+      <c r="P7">
+        <f>SUM(O2:O7)</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1819,24 +1976,49 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>419</v>
+        <v>196</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>838</v>
+        <v>392</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>419</v>
+        <v>196</v>
       </c>
       <c r="G8">
         <f>SUM(F2:F8)</f>
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="J8">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="1">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+      <c r="P8">
+        <f>SUM(O2:O8)</f>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1846,24 +2028,49 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>628</v>
+        <v>294</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>1256</v>
+        <v>588</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>628</v>
+        <v>294</v>
       </c>
       <c r="G9">
         <f>SUM(F2:F9)</f>
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+      <c r="J9">
+        <v>34</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>288</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="4"/>
+        <v>576</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="P9">
+        <f>SUM(O2:O9)</f>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1873,24 +2080,49 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>942</v>
+        <v>441</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>1884</v>
+        <v>882</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>942</v>
+        <v>441</v>
       </c>
       <c r="G10">
         <f>SUM(F2:F10)</f>
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1289</v>
+      </c>
+      <c r="J10">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>864</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>432</v>
+      </c>
+      <c r="P10">
+        <f>SUM(O2:O10)</f>
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1900,24 +2132,49 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>1413</v>
+        <v>662</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>2826</v>
+        <v>1324</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1413</v>
+        <v>662</v>
       </c>
       <c r="G11">
         <f>SUM(F2:F11)</f>
-        <v>4139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1951</v>
+      </c>
+      <c r="J11">
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>648</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>1296</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>648</v>
+      </c>
+      <c r="P11">
+        <f>SUM(O2:O11)</f>
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1927,24 +2184,49 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>2120</v>
+        <v>993</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>4240</v>
+        <v>1986</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>2120</v>
+        <v>993</v>
       </c>
       <c r="G12">
         <f>SUM(F2:F12)</f>
-        <v>6259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2944</v>
+      </c>
+      <c r="J12">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>972</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>1944</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>972</v>
+      </c>
+      <c r="P12">
+        <f>SUM(O2:O12)</f>
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -1954,24 +2236,49 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>3180</v>
+        <v>1489</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>6360</v>
+        <v>2978</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>3180</v>
+        <v>1489</v>
       </c>
       <c r="G13">
         <f>SUM(F2:F13)</f>
-        <v>9439</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4433</v>
+      </c>
+      <c r="J13">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>1458</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>2916</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>1458</v>
+      </c>
+      <c r="P13">
+        <f>SUM(O2:O13)</f>
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -1981,24 +2288,49 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>4770</v>
+        <v>2234</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>9540</v>
+        <v>4468</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>4770</v>
+        <v>2234</v>
       </c>
       <c r="G14">
         <f>SUM(F2:F14)</f>
-        <v>14209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6667</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>2187</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>4374</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>2187</v>
+      </c>
+      <c r="P14">
+        <f>SUM(O2:O14)</f>
+        <v>6527</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2008,24 +2340,49 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>7155</v>
+        <v>3351</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>14310</v>
+        <v>6702</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>7155</v>
+        <v>3351</v>
       </c>
       <c r="G15">
         <f>SUM(F2:F15)</f>
-        <v>21364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10018</v>
+      </c>
+      <c r="J15">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15" s="1">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>3280</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>6560</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>3280</v>
+      </c>
+      <c r="P15">
+        <f>SUM(O2:O15)</f>
+        <v>9807</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2035,24 +2392,49 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>10732</v>
+        <v>5026</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>21464</v>
+        <v>10052</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>10732</v>
+        <v>5026</v>
       </c>
       <c r="G16">
         <f>SUM(F2:F16)</f>
-        <v>32096</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>15044</v>
+      </c>
+      <c r="J16">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" s="1">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>4920</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>9840</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>4920</v>
+      </c>
+      <c r="P16">
+        <f>SUM(O2:O16)</f>
+        <v>14727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2062,24 +2444,49 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>16098</v>
+        <v>7539</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>32196</v>
+        <v>15078</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>16098</v>
+        <v>7539</v>
       </c>
       <c r="G17">
         <f>SUM(F2:F17)</f>
-        <v>48194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22583</v>
+      </c>
+      <c r="J17">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17" s="1">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>7380</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>14760</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>7380</v>
+      </c>
+      <c r="P17">
+        <f>SUM(O2:O17)</f>
+        <v>22107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2087,26 +2494,51 @@
       <c r="C18" s="1">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>24147</v>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>11309</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>48294</v>
+        <v>22618</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>24147</v>
+        <v>11309</v>
       </c>
       <c r="G18">
         <f>SUM(F2:F18)</f>
-        <v>72341</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>33892</v>
+      </c>
+      <c r="J18">
+        <v>34</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>11070</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>22140</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>11070</v>
+      </c>
+      <c r="P18">
+        <f>SUM(O2:O18)</f>
+        <v>33177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2116,24 +2548,49 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>36221</v>
+        <v>16963</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>72442</v>
+        <v>33926</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>36221</v>
+        <v>16963</v>
       </c>
       <c r="G19">
         <f>SUM(F2:F19)</f>
-        <v>108562</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>50855</v>
+      </c>
+      <c r="J19">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" s="1">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>16605</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="4"/>
+        <v>33210</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>16605</v>
+      </c>
+      <c r="P19">
+        <f>SUM(O2:O19)</f>
+        <v>49782</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2143,24 +2600,49 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>54331</v>
+        <v>25445</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>108662</v>
+        <v>50890</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>54331</v>
+        <v>25445</v>
       </c>
       <c r="G20">
         <f>SUM(F2:F20)</f>
-        <v>162893</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76300</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="1">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>24908</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>49816</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>24908</v>
+      </c>
+      <c r="P20">
+        <f>SUM(O2:O20)</f>
+        <v>74690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2170,19 +2652,148 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>81497</v>
+        <v>38167</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>162994</v>
+        <v>76334</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>81497</v>
+        <v>38167</v>
       </c>
       <c r="G21">
         <f>SUM(F2:F21)</f>
-        <v>244390</v>
+        <v>114467</v>
+      </c>
+      <c r="J21">
+        <v>34</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="1">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>37362</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>74724</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>37362</v>
+      </c>
+      <c r="P21">
+        <f>SUM(O2:O21)</f>
+        <v>112052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:D23" si="6">ROUND(((A22+G21)-0.4)/(B22-1),0)</f>
+        <v>57251</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:E23" si="7">(D22*B22)-D22</f>
+        <v>114502</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F23" si="8">D22</f>
+        <v>57251</v>
+      </c>
+      <c r="G22">
+        <f>SUM(F2:F22)</f>
+        <v>171718</v>
+      </c>
+      <c r="J22">
+        <v>34</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="1">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22:M23" si="9">ROUND(((J22+P21)-0.4)/(K22-1),0)</f>
+        <v>56043</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N23" si="10">(M22*K22)-M22</f>
+        <v>112086</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:O23" si="11">M22</f>
+        <v>56043</v>
+      </c>
+      <c r="P22">
+        <f>SUM(O2:O22)</f>
+        <v>168095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="6"/>
+        <v>85876</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>171752</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>85876</v>
+      </c>
+      <c r="G23">
+        <f>SUM(F2:F23)</f>
+        <v>257594</v>
+      </c>
+      <c r="J23">
+        <v>34</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="9"/>
+        <v>84064</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>168128</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="11"/>
+        <v>84064</v>
+      </c>
+      <c r="P23">
+        <f>SUM(O2:O23)</f>
+        <v>252159</v>
       </c>
     </row>
   </sheetData>
@@ -2194,17 +2805,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -2254,7 +2867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7</v>
       </c>
@@ -2287,7 +2900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -2320,7 +2933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2353,7 +2966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2380,7 +2993,7 @@
         <v>9796</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -2391,7 +3004,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <f>ROUND((G6+A7)/(B6-1),0)</f>
+        <f t="shared" ref="D7:D24" si="2">ROUND((G6+A7)/(B6-1),0)</f>
         <v>32680</v>
       </c>
       <c r="E7">
@@ -2411,7 +3024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2422,7 +3035,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <f>ROUND((G7+A8)/(B7-1),0)</f>
+        <f t="shared" si="2"/>
         <v>141613</v>
       </c>
       <c r="E8">
@@ -2438,7 +3051,7 @@
         <v>184089</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2449,7 +3062,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <f>ROUND((G8+A9)/(B8-1),0)</f>
+        <f t="shared" si="2"/>
         <v>613657</v>
       </c>
       <c r="E9">
@@ -2465,7 +3078,7 @@
         <v>797746</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2476,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <f>ROUND((G9+A10)/(B9-1),0)</f>
+        <f t="shared" si="2"/>
         <v>2659180</v>
       </c>
       <c r="E10">
@@ -2492,7 +3105,7 @@
         <v>3456926</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2503,7 +3116,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <f>ROUND((G10+A11)/(B10-1),0)</f>
+        <f t="shared" si="2"/>
         <v>11523113</v>
       </c>
       <c r="E11">
@@ -2519,7 +3132,7 @@
         <v>14980039</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2530,7 +3143,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <f>ROUND((G11+A12)/(B11-1),0)</f>
+        <f t="shared" si="2"/>
         <v>49933490</v>
       </c>
       <c r="E12">
@@ -2546,7 +3159,7 @@
         <v>64913529</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2557,7 +3170,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <f>ROUND((G12+A13)/(B12-1),0)</f>
+        <f t="shared" si="2"/>
         <v>216378457</v>
       </c>
       <c r="E13">
@@ -2573,7 +3186,7 @@
         <v>281291986</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2584,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <f>ROUND((G13+A14)/(B13-1),0)</f>
+        <f t="shared" si="2"/>
         <v>937639980</v>
       </c>
       <c r="E14">
@@ -2600,7 +3213,7 @@
         <v>1218931966</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2611,7 +3224,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <f>ROUND((G14+A15)/(B14-1),0)</f>
+        <f t="shared" si="2"/>
         <v>4063106580</v>
       </c>
       <c r="E15">
@@ -2627,7 +3240,7 @@
         <v>5282038546</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2638,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f>ROUND((G15+A16)/(B15-1),0)</f>
+        <f t="shared" si="2"/>
         <v>17606795180</v>
       </c>
       <c r="E16">
@@ -2654,7 +3267,7 @@
         <v>22888833726</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2665,7 +3278,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <f>ROUND((G16+A17)/(B16-1),0)</f>
+        <f t="shared" si="2"/>
         <v>76296112447</v>
       </c>
       <c r="E17">
@@ -2681,7 +3294,7 @@
         <v>99184946173</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2692,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="3">
-        <f>ROUND((G17+A18)/(B17-1),0)</f>
+        <f t="shared" si="2"/>
         <v>330616487270</v>
       </c>
       <c r="E18">
@@ -2708,7 +3321,7 @@
         <v>429801433443</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2719,7 +3332,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <f>ROUND((G18+A19)/(B18-1),0)</f>
+        <f t="shared" si="2"/>
         <v>1432671444837</v>
       </c>
       <c r="E19">
@@ -2735,7 +3348,7 @@
         <v>1862472878280</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2746,7 +3359,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <f>ROUND((G19+A20)/(B19-1),0)</f>
+        <f t="shared" si="2"/>
         <v>6208242927627</v>
       </c>
       <c r="E20">
@@ -2762,7 +3375,7 @@
         <v>8070715805907</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2773,7 +3386,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <f>ROUND((G20+A21)/(B20-1),0)</f>
+        <f t="shared" si="2"/>
         <v>26902386019717</v>
       </c>
       <c r="E21">
@@ -2789,7 +3402,7 @@
         <v>34973101825624</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -2800,7 +3413,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="2">
-        <f>ROUND((G21+A22)/(B21-1),0)</f>
+        <f t="shared" si="2"/>
         <v>116577006085440</v>
       </c>
       <c r="E22">
@@ -2816,7 +3429,7 @@
         <v>151550107911064</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -2827,7 +3440,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <f>ROUND((G22+A23)/(B22-1),0)</f>
+        <f t="shared" si="2"/>
         <v>505167026370240</v>
       </c>
       <c r="E23">
@@ -2843,7 +3456,7 @@
         <v>656717134281304</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -2854,7 +3467,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <f>ROUND((G23+A24)/(B23-1),0)</f>
+        <f t="shared" si="2"/>
         <v>2189057114271040</v>
       </c>
       <c r="E24">

--- a/profit.xlsx
+++ b/profit.xlsx
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +60,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,13 +91,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1592,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,7 +1662,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1665,48 +1672,48 @@
       </c>
       <c r="D2">
         <f>ROUND((A2-0.4)/(B2-1),0)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <f>(D2*B2)-D2</f>
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <f>D2</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <f>SUM(F2:F2)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <f>(M2*K2)-M2</f>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <f>M2</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P2">
         <f>SUM(O2:O2)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1716,49 +1723,49 @@
       </c>
       <c r="D3">
         <f>ROUND(((A3+G2)-0.4)/(B3-1),0)</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <f>(D3*B3)-D3</f>
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F3">
         <f>D3</f>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3">
         <f>SUM(F2:F3)</f>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J3">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1">
         <v>2</v>
       </c>
       <c r="M3">
         <f>ROUND(((J3+P2)-0.4)/(K3-1),0)</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N3">
         <f>(M3*K3)-M3</f>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="O3">
         <f>M3</f>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P3">
         <f>SUM(O2:O3)</f>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1768,49 +1775,49 @@
       </c>
       <c r="D4">
         <f>ROUND(((A4+G3)-0.4)/(B4-1),0)</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <f>(D4*B4)-D4</f>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <f>D4</f>
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <f>SUM(F2:F4)</f>
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="J4">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4" s="1">
         <v>3</v>
       </c>
       <c r="M4">
         <f>ROUND(((J4+P3)-0.4)/(K4-1),0)</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="N4">
         <f>(M4*K4)-M4</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O4">
         <f>M4</f>
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="P4">
         <f>SUM(O2:O4)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1820,49 +1827,49 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D21" si="0">ROUND(((A5+G4)-0.4)/(B5-1),0)</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:E21" si="1">(D5*B5)-D5</f>
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F21" si="2">D5</f>
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <f>SUM(F2:F5)</f>
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="1">
         <v>4</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M21" si="3">ROUND(((J5+P4)-0.4)/(K5-1),0)</f>
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N21" si="4">(M5*K5)-M5</f>
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O21" si="5">M5</f>
-        <v>57</v>
+        <v>160</v>
       </c>
       <c r="P5">
         <f>SUM(O2:O5)</f>
-        <v>137</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1872,49 +1879,49 @@
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <f>SUM(F2:F6)</f>
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="J6">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="P6">
         <f>SUM(O2:O6)</f>
-        <v>222</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1924,49 +1931,49 @@
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G7">
         <f>SUM(F2:F7)</f>
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="J7">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="1">
         <v>6</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>128</v>
+        <v>640</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>256</v>
+        <v>640</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>128</v>
+        <v>640</v>
       </c>
       <c r="P7">
         <f>SUM(O2:O7)</f>
-        <v>350</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1976,49 +1983,49 @@
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>392</v>
+        <v>310</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="G8">
         <f>SUM(F2:F8)</f>
-        <v>554</v>
+        <v>445</v>
       </c>
       <c r="J8">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="1">
         <v>7</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
-        <v>192</v>
+        <v>1280</v>
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>384</v>
+        <v>1280</v>
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>192</v>
+        <v>1280</v>
       </c>
       <c r="P8">
         <f>SUM(O2:O8)</f>
-        <v>542</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -2028,49 +2035,49 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="G9">
         <f>SUM(F2:F9)</f>
-        <v>848</v>
+        <v>675</v>
       </c>
       <c r="J9">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" s="1">
         <v>8</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
-        <v>288</v>
+        <v>2560</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>576</v>
+        <v>2560</v>
       </c>
       <c r="O9">
         <f t="shared" si="5"/>
-        <v>288</v>
+        <v>2560</v>
       </c>
       <c r="P9">
         <f>SUM(O2:O9)</f>
-        <v>830</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2080,49 +2087,49 @@
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>882</v>
+        <v>680</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="G10">
         <f>SUM(F2:F10)</f>
-        <v>1289</v>
+        <v>1015</v>
       </c>
       <c r="J10">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="1">
         <v>9</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
-        <v>432</v>
+        <v>5120</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>864</v>
+        <v>5120</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
-        <v>432</v>
+        <v>5120</v>
       </c>
       <c r="P10">
         <f>SUM(O2:O10)</f>
-        <v>1262</v>
+        <v>10220</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2132,49 +2139,49 @@
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>662</v>
+        <v>510</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>1324</v>
+        <v>1020</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>662</v>
+        <v>510</v>
       </c>
       <c r="G11">
         <f>SUM(F2:F11)</f>
-        <v>1951</v>
+        <v>1525</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="1">
         <v>10</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>648</v>
+        <v>10240</v>
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>1296</v>
+        <v>10240</v>
       </c>
       <c r="O11">
         <f t="shared" si="5"/>
-        <v>648</v>
+        <v>10240</v>
       </c>
       <c r="P11">
         <f>SUM(O2:O11)</f>
-        <v>1910</v>
+        <v>20460</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2184,49 +2191,49 @@
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>993</v>
+        <v>765</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>1986</v>
+        <v>1530</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>993</v>
+        <v>765</v>
       </c>
       <c r="G12">
         <f>SUM(F2:F12)</f>
-        <v>2944</v>
+        <v>2290</v>
       </c>
       <c r="J12">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" s="1">
         <v>11</v>
       </c>
       <c r="M12">
         <f t="shared" si="3"/>
-        <v>972</v>
+        <v>20480</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>1944</v>
+        <v>20480</v>
       </c>
       <c r="O12">
         <f t="shared" si="5"/>
-        <v>972</v>
+        <v>20480</v>
       </c>
       <c r="P12">
         <f>SUM(O2:O12)</f>
-        <v>2882</v>
+        <v>40940</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2236,49 +2243,49 @@
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>1489</v>
+        <v>1147</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>2978</v>
+        <v>2294</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>1489</v>
+        <v>1147</v>
       </c>
       <c r="G13">
         <f>SUM(F2:F13)</f>
-        <v>4433</v>
+        <v>3437</v>
       </c>
       <c r="J13">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1">
         <v>12</v>
       </c>
       <c r="M13">
         <f t="shared" si="3"/>
-        <v>1458</v>
+        <v>40960</v>
       </c>
       <c r="N13">
         <f t="shared" si="4"/>
-        <v>2916</v>
+        <v>40960</v>
       </c>
       <c r="O13">
         <f t="shared" si="5"/>
-        <v>1458</v>
+        <v>40960</v>
       </c>
       <c r="P13">
         <f>SUM(O2:O13)</f>
-        <v>4340</v>
+        <v>81900</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2288,49 +2295,49 @@
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>2234</v>
+        <v>1721</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>4468</v>
+        <v>3442</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>2234</v>
+        <v>1721</v>
       </c>
       <c r="G14">
         <f>SUM(F2:F14)</f>
-        <v>6667</v>
+        <v>5158</v>
       </c>
       <c r="J14">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" s="1">
         <v>13</v>
       </c>
       <c r="M14">
         <f t="shared" si="3"/>
-        <v>2187</v>
+        <v>81920</v>
       </c>
       <c r="N14">
         <f t="shared" si="4"/>
-        <v>4374</v>
+        <v>81920</v>
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>2187</v>
+        <v>81920</v>
       </c>
       <c r="P14">
         <f>SUM(O2:O14)</f>
-        <v>6527</v>
+        <v>163820</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2340,49 +2347,49 @@
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>3351</v>
+        <v>2581</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>6702</v>
+        <v>5162</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>3351</v>
+        <v>2581</v>
       </c>
       <c r="G15">
         <f>SUM(F2:F15)</f>
-        <v>10018</v>
+        <v>7739</v>
       </c>
       <c r="J15">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15" s="1">
         <v>14</v>
       </c>
       <c r="M15">
         <f t="shared" si="3"/>
-        <v>3280</v>
+        <v>163840</v>
       </c>
       <c r="N15">
         <f t="shared" si="4"/>
-        <v>6560</v>
+        <v>163840</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>3280</v>
+        <v>163840</v>
       </c>
       <c r="P15">
         <f>SUM(O2:O15)</f>
-        <v>9807</v>
+        <v>327660</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2392,49 +2399,49 @@
       </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>5026</v>
+        <v>3872</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>10052</v>
+        <v>7744</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
-        <v>5026</v>
+        <v>3872</v>
       </c>
       <c r="G16">
         <f>SUM(F2:F16)</f>
-        <v>15044</v>
+        <v>11611</v>
       </c>
       <c r="J16">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16" s="1">
         <v>15</v>
       </c>
       <c r="M16">
         <f t="shared" si="3"/>
-        <v>4920</v>
+        <v>327680</v>
       </c>
       <c r="N16">
         <f t="shared" si="4"/>
-        <v>9840</v>
+        <v>327680</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>4920</v>
+        <v>327680</v>
       </c>
       <c r="P16">
         <f>SUM(O2:O16)</f>
-        <v>14727</v>
+        <v>655340</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -2444,49 +2451,49 @@
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>7539</v>
+        <v>5808</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>15078</v>
+        <v>11616</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
-        <v>7539</v>
+        <v>5808</v>
       </c>
       <c r="G17">
         <f>SUM(F2:F17)</f>
-        <v>22583</v>
+        <v>17419</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1">
         <v>16</v>
       </c>
       <c r="M17">
         <f t="shared" si="3"/>
-        <v>7380</v>
+        <v>655360</v>
       </c>
       <c r="N17">
         <f t="shared" si="4"/>
-        <v>14760</v>
+        <v>655360</v>
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
-        <v>7380</v>
+        <v>655360</v>
       </c>
       <c r="P17">
         <f>SUM(O2:O17)</f>
-        <v>22107</v>
+        <v>1310700</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2496,49 +2503,49 @@
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>11309</v>
+        <v>8712</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>22618</v>
+        <v>17424</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
-        <v>11309</v>
+        <v>8712</v>
       </c>
       <c r="G18">
         <f>SUM(F2:F18)</f>
-        <v>33892</v>
+        <v>26131</v>
       </c>
       <c r="J18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="1">
         <v>17</v>
       </c>
       <c r="M18">
         <f t="shared" si="3"/>
-        <v>11070</v>
+        <v>1310720</v>
       </c>
       <c r="N18">
         <f t="shared" si="4"/>
-        <v>22140</v>
+        <v>1310720</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>11070</v>
+        <v>1310720</v>
       </c>
       <c r="P18">
         <f>SUM(O2:O18)</f>
-        <v>33177</v>
+        <v>2621420</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2548,49 +2555,49 @@
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>16963</v>
+        <v>13068</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>33926</v>
+        <v>26136</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
-        <v>16963</v>
+        <v>13068</v>
       </c>
       <c r="G19">
         <f>SUM(F2:F19)</f>
-        <v>50855</v>
+        <v>39199</v>
       </c>
       <c r="J19">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" s="1">
         <v>18</v>
       </c>
       <c r="M19">
         <f t="shared" si="3"/>
-        <v>16605</v>
+        <v>2621440</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>33210</v>
+        <v>2621440</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>16605</v>
+        <v>2621440</v>
       </c>
       <c r="P19">
         <f>SUM(O2:O19)</f>
-        <v>49782</v>
+        <v>5242860</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2600,49 +2607,49 @@
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>25445</v>
+        <v>19602</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>50890</v>
+        <v>39204</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
-        <v>25445</v>
+        <v>19602</v>
       </c>
       <c r="G20">
         <f>SUM(F2:F20)</f>
-        <v>76300</v>
+        <v>58801</v>
       </c>
       <c r="J20">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1">
         <v>19</v>
       </c>
       <c r="M20">
         <f t="shared" si="3"/>
-        <v>24908</v>
+        <v>5242880</v>
       </c>
       <c r="N20">
         <f t="shared" si="4"/>
-        <v>49816</v>
+        <v>5242880</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>24908</v>
+        <v>5242880</v>
       </c>
       <c r="P20">
         <f>SUM(O2:O20)</f>
-        <v>74690</v>
+        <v>10485740</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2652,49 +2659,49 @@
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>38167</v>
+        <v>29403</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>76334</v>
+        <v>58806</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>38167</v>
+        <v>29403</v>
       </c>
       <c r="G21">
         <f>SUM(F2:F21)</f>
-        <v>114467</v>
+        <v>88204</v>
       </c>
       <c r="J21">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21" s="1">
         <v>20</v>
       </c>
       <c r="M21">
         <f t="shared" si="3"/>
-        <v>37362</v>
+        <v>10485760</v>
       </c>
       <c r="N21">
         <f t="shared" si="4"/>
-        <v>74724</v>
+        <v>10485760</v>
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>37362</v>
+        <v>10485760</v>
       </c>
       <c r="P21">
         <f>SUM(O2:O21)</f>
-        <v>112052</v>
+        <v>20971500</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -2702,51 +2709,51 @@
       <c r="C22" s="1">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <f t="shared" ref="D22:D23" si="6">ROUND(((A22+G21)-0.4)/(B22-1),0)</f>
-        <v>57251</v>
+        <v>44104</v>
       </c>
       <c r="E22">
         <f t="shared" ref="E22:E23" si="7">(D22*B22)-D22</f>
-        <v>114502</v>
+        <v>88208</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22:F23" si="8">D22</f>
-        <v>57251</v>
+        <v>44104</v>
       </c>
       <c r="G22">
         <f>SUM(F2:F22)</f>
-        <v>171718</v>
+        <v>132308</v>
       </c>
       <c r="J22">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22" s="1">
         <v>21</v>
       </c>
       <c r="M22">
         <f t="shared" ref="M22:M23" si="9">ROUND(((J22+P21)-0.4)/(K22-1),0)</f>
-        <v>56043</v>
+        <v>20971520</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22:N23" si="10">(M22*K22)-M22</f>
-        <v>112086</v>
+        <v>20971520</v>
       </c>
       <c r="O22">
         <f t="shared" ref="O22:O23" si="11">M22</f>
-        <v>56043</v>
+        <v>20971520</v>
       </c>
       <c r="P22">
         <f>SUM(O2:O22)</f>
-        <v>168095</v>
+        <v>41943020</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -2754,46 +2761,73 @@
       <c r="C23" s="1">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <f t="shared" si="6"/>
-        <v>85876</v>
+        <v>66156</v>
       </c>
       <c r="E23">
         <f t="shared" si="7"/>
-        <v>171752</v>
+        <v>132312</v>
       </c>
       <c r="F23">
         <f t="shared" si="8"/>
-        <v>85876</v>
+        <v>66156</v>
       </c>
       <c r="G23">
         <f>SUM(F2:F23)</f>
-        <v>257594</v>
+        <v>198464</v>
       </c>
       <c r="J23">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23" s="1">
         <v>22</v>
       </c>
       <c r="M23">
         <f t="shared" si="9"/>
-        <v>84064</v>
+        <v>41943040</v>
       </c>
       <c r="N23">
         <f t="shared" si="10"/>
-        <v>168128</v>
+        <v>41943040</v>
       </c>
       <c r="O23">
         <f t="shared" si="11"/>
-        <v>84064</v>
+        <v>41943040</v>
       </c>
       <c r="P23">
         <f>SUM(O2:O23)</f>
-        <v>252159</v>
+        <v>83886060</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24" si="12">ROUND(((A24+G23)-0.4)/(B24-1),0)</f>
+        <v>99234</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24" si="13">(D24*B24)-D24</f>
+        <v>198468</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="14">D24</f>
+        <v>99234</v>
+      </c>
+      <c r="G24">
+        <f>SUM(F2:F24)</f>
+        <v>297698</v>
       </c>
     </row>
   </sheetData>
@@ -2806,7 +2840,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
